--- a/data/trans_orig/P39A1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1A84EBB-E52A-4AE7-BD31-0CC0EF1E8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FEFC055-48DD-426A-A66D-CEBA5C9CA44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7181D3D-37FD-4B3C-81EE-E656277D0C4B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2D28A64-7CFB-48EC-AF2E-88DD89576831}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>67,12%</t>
   </si>
   <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>69,67%</t>
   </si>
   <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>32,88%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
   </si>
   <si>
     <t>30,33%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>73,72%</t>
   </si>
   <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>69,68%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>71,63%</t>
@@ -158,31 +158,31 @@
     <t>68,95%</t>
   </si>
   <si>
-    <t>74,3%</t>
+    <t>74,2%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>25,7%</t>
+    <t>25,8%</t>
   </si>
   <si>
     <t>31,05%</t>
@@ -194,16 +194,16 @@
     <t>78,45%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>75,21%</t>
   </si>
   <si>
-    <t>72,76%</t>
+    <t>72,71%</t>
   </si>
   <si>
     <t>77,45%</t>
@@ -212,19 +212,19 @@
     <t>76,82%</t>
   </si>
   <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>24,79%</t>
@@ -233,16 +233,16 @@
     <t>22,55%</t>
   </si>
   <si>
-    <t>27,24%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>64,28%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>67,22%</t>
   </si>
   <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>70,23%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
   <si>
     <t>65,06%</t>
   </si>
   <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
   </si>
   <si>
     <t>67,45%</t>
   </si>
   <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>32,55%</t>
   </si>
   <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D50102D-4565-468F-8001-246A758819A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AD7839-D915-4E03-A2B3-18C85175B795}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1101,7 +1101,7 @@
         <v>376</v>
       </c>
       <c r="D7" s="7">
-        <v>355326</v>
+        <v>355325</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1203,7 +1203,7 @@
         <v>538</v>
       </c>
       <c r="D9" s="7">
-        <v>481975</v>
+        <v>481974</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1751,7 +1751,7 @@
         <v>5332</v>
       </c>
       <c r="N19" s="7">
-        <v>4616118</v>
+        <v>4616117</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1787,7 +1787,7 @@
         <v>1615</v>
       </c>
       <c r="I20" s="7">
-        <v>1056669</v>
+        <v>1056670</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -1838,7 +1838,7 @@
         <v>4812</v>
       </c>
       <c r="I21" s="7">
-        <v>3439724</v>
+        <v>3439725</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1853,7 +1853,7 @@
         <v>7883</v>
       </c>
       <c r="N21" s="7">
-        <v>6544519</v>
+        <v>6544518</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P39A1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FEFC055-48DD-426A-A66D-CEBA5C9CA44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E714316-B6A7-4ABA-B1FD-397D76BF340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2D28A64-7CFB-48EC-AF2E-88DD89576831}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DAE65B23-3A0F-4994-8041-AA0E70B4BB3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>73,72%</t>
@@ -188,7 +188,7 @@
     <t>31,05%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>78,45%</t>
@@ -245,7 +245,7 @@
     <t>25,2%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>64,28%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AD7839-D915-4E03-A2B3-18C85175B795}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833BA694-74D6-4E3C-B723-986DC8C144CC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E714316-B6A7-4ABA-B1FD-397D76BF340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FD984E-34DE-480F-B77E-69DDD88490AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DAE65B23-3A0F-4994-8041-AA0E70B4BB3D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3849AAE9-787A-4D71-869A-053F96F8FB6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>67,12%</t>
   </si>
   <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>69,67%</t>
   </si>
   <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>32,88%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>30,33%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>73,72%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>69,68%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>71,63%</t>
@@ -158,31 +158,31 @@
     <t>68,95%</t>
   </si>
   <si>
-    <t>74,2%</t>
+    <t>74,3%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
   </si>
   <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>25,8%</t>
+    <t>25,7%</t>
   </si>
   <si>
     <t>31,05%</t>
@@ -194,16 +194,16 @@
     <t>78,45%</t>
   </si>
   <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>75,21%</t>
   </si>
   <si>
-    <t>72,71%</t>
+    <t>72,76%</t>
   </si>
   <si>
     <t>77,45%</t>
@@ -212,19 +212,19 @@
     <t>76,82%</t>
   </si>
   <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>24,79%</t>
@@ -233,16 +233,16 @@
     <t>22,55%</t>
   </si>
   <si>
-    <t>27,29%</t>
+    <t>27,24%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>64,28%</t>
   </si>
   <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>67,22%</t>
   </si>
   <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>70,23%</t>
   </si>
   <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
   </si>
   <si>
     <t>65,06%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
   </si>
   <si>
     <t>67,45%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>32,55%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833BA694-74D6-4E3C-B723-986DC8C144CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FB7277-89C6-480F-BA68-65530F7CFCCB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1101,7 +1101,7 @@
         <v>376</v>
       </c>
       <c r="D7" s="7">
-        <v>355325</v>
+        <v>355326</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1203,7 +1203,7 @@
         <v>538</v>
       </c>
       <c r="D9" s="7">
-        <v>481974</v>
+        <v>481975</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1751,7 +1751,7 @@
         <v>5332</v>
       </c>
       <c r="N19" s="7">
-        <v>4616117</v>
+        <v>4616118</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1787,7 +1787,7 @@
         <v>1615</v>
       </c>
       <c r="I20" s="7">
-        <v>1056670</v>
+        <v>1056669</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -1838,7 +1838,7 @@
         <v>4812</v>
       </c>
       <c r="I21" s="7">
-        <v>3439725</v>
+        <v>3439724</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1853,7 +1853,7 @@
         <v>7883</v>
       </c>
       <c r="N21" s="7">
-        <v>6544518</v>
+        <v>6544519</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P39A1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FD984E-34DE-480F-B77E-69DDD88490AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{255609E6-807D-4920-B9A3-AA8D473A763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3849AAE9-787A-4D71-869A-053F96F8FB6A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1F524FF3-4094-42AF-8919-A509942106B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Población según si diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 90,16%)</t>
   </si>
@@ -65,352 +65,283 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +756,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FB7277-89C6-480F-BA68-65530F7CFCCB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9B5FB-565F-4E34-AF33-AA62B8BF6A7C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>64</v>
+        <v>440</v>
       </c>
       <c r="D4" s="7">
-        <v>61589</v>
+        <v>407709</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>130</v>
+        <v>708</v>
       </c>
       <c r="I4" s="7">
-        <v>76282</v>
+        <v>407036</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>194</v>
+        <v>1148</v>
       </c>
       <c r="N4" s="7">
-        <v>137871</v>
+        <v>814746</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="D5" s="7">
-        <v>30171</v>
+        <v>153051</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>71</v>
+        <v>354</v>
       </c>
       <c r="I5" s="7">
-        <v>33214</v>
+        <v>180766</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>110</v>
+        <v>555</v>
       </c>
       <c r="N5" s="7">
-        <v>63384</v>
+        <v>333816</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>103</v>
+        <v>641</v>
       </c>
       <c r="D6" s="7">
-        <v>91760</v>
+        <v>560760</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>201</v>
+        <v>1062</v>
       </c>
       <c r="I6" s="7">
-        <v>109496</v>
+        <v>587802</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1006,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>304</v>
+        <v>1703</v>
       </c>
       <c r="N6" s="7">
-        <v>201255</v>
+        <v>1148562</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>376</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>355326</v>
+        <v>913494</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>578</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="7">
-        <v>361295</v>
+        <v>658339</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1059,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>954</v>
+        <v>1652</v>
       </c>
       <c r="N7" s="7">
-        <v>716621</v>
+        <v>1571833</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1080,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="D8" s="7">
-        <v>126649</v>
+        <v>206830</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1095,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="I8" s="7">
-        <v>157241</v>
+        <v>222256</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1110,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>445</v>
+        <v>623</v>
       </c>
       <c r="N8" s="7">
-        <v>283890</v>
+        <v>429085</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>884</v>
       </c>
       <c r="D9" s="7">
-        <v>481975</v>
+        <v>1120324</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1146,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>861</v>
+        <v>1391</v>
       </c>
       <c r="I9" s="7">
-        <v>518536</v>
+        <v>880595</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1161,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1399</v>
+        <v>2275</v>
       </c>
       <c r="N9" s="7">
-        <v>1000511</v>
+        <v>2000918</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>652</v>
+        <v>402</v>
       </c>
       <c r="D10" s="7">
-        <v>755024</v>
+        <v>419629</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1199,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>1000</v>
+        <v>584</v>
       </c>
       <c r="I10" s="7">
-        <v>732662</v>
+        <v>600091</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,19 +1214,19 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1652</v>
+        <v>986</v>
       </c>
       <c r="N10" s="7">
-        <v>1487686</v>
+        <v>1019720</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,49 +1235,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>207426</v>
+        <v>242442</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>385</v>
+      </c>
+      <c r="I11" s="7">
+        <v>246951</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>391</v>
-      </c>
-      <c r="I11" s="7">
-        <v>241555</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>614</v>
+      </c>
+      <c r="N11" s="7">
+        <v>489393</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>623</v>
-      </c>
-      <c r="N11" s="7">
-        <v>448980</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>884</v>
+        <v>631</v>
       </c>
       <c r="D12" s="7">
-        <v>962450</v>
+        <v>662071</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1301,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1391</v>
+        <v>969</v>
       </c>
       <c r="I12" s="7">
-        <v>974217</v>
+        <v>847042</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1316,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2275</v>
+        <v>1600</v>
       </c>
       <c r="N12" s="7">
-        <v>1936666</v>
+        <v>1509113</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,55 +1333,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>402</v>
+        <v>641</v>
       </c>
       <c r="D13" s="7">
-        <v>438246</v>
+        <v>600163</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>905</v>
+      </c>
+      <c r="I13" s="7">
+        <v>605691</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>584</v>
-      </c>
-      <c r="I13" s="7">
-        <v>542211</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1546</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1205853</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>986</v>
-      </c>
-      <c r="N13" s="7">
-        <v>980458</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,49 +1390,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>243489</v>
+        <v>253095</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>485</v>
+      </c>
+      <c r="I14" s="7">
+        <v>381627</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>385</v>
-      </c>
-      <c r="I14" s="7">
-        <v>264468</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>759</v>
+      </c>
+      <c r="N14" s="7">
+        <v>634722</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>614</v>
-      </c>
-      <c r="N14" s="7">
-        <v>507956</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>631</v>
+        <v>915</v>
       </c>
       <c r="D15" s="7">
-        <v>681735</v>
+        <v>853258</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1456,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>969</v>
+        <v>1390</v>
       </c>
       <c r="I15" s="7">
-        <v>806679</v>
+        <v>987318</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1471,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1600</v>
+        <v>2305</v>
       </c>
       <c r="N15" s="7">
-        <v>1488414</v>
+        <v>1840575</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1488,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>641</v>
+        <v>2135</v>
       </c>
       <c r="D16" s="7">
-        <v>622877</v>
+        <v>2340996</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3197</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2271157</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5332</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4612153</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>905</v>
-      </c>
-      <c r="I16" s="7">
-        <v>670605</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1546</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1293482</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1545,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>274</v>
+        <v>936</v>
       </c>
       <c r="D17" s="7">
-        <v>263998</v>
+        <v>855417</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1615</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1031599</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2551</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1887016</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>485</v>
-      </c>
-      <c r="I17" s="7">
-        <v>360193</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>759</v>
-      </c>
-      <c r="N17" s="7">
-        <v>624190</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1596,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>915</v>
+        <v>3071</v>
       </c>
       <c r="D18" s="7">
-        <v>886875</v>
+        <v>3196413</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1611,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1390</v>
+        <v>4812</v>
       </c>
       <c r="I18" s="7">
-        <v>1030798</v>
+        <v>3302756</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1626,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2305</v>
+        <v>7883</v>
       </c>
       <c r="N18" s="7">
-        <v>1917672</v>
+        <v>6499169</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1642,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2135</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2233063</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3197</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2383055</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5332</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4616118</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>936</v>
-      </c>
-      <c r="D20" s="7">
-        <v>871731</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1615</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1056669</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2551</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1928401</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3071</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3104794</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4812</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3439724</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>7883</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6544519</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
